--- a/data/input/absenteeism_data_49.xlsx
+++ b/data/input/absenteeism_data_49.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29369</v>
+        <v>14856</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Davi Carvalho</t>
+          <t>Yuri Correia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,26 +490,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45090</v>
       </c>
       <c r="G2" t="n">
-        <v>5398.91</v>
+        <v>3839.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>69892</v>
+        <v>95148</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Clara Viana</t>
+          <t>Heloísa Cardoso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,142 +519,142 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>10663.81</v>
+        <v>6015.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7934</v>
+        <v>86707</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Gonçalves</t>
+          <t>Raul Alves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>5830.61</v>
+        <v>7007.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87861</v>
+        <v>85121</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexia da Cunha</t>
+          <t>Dr. Danilo Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45104</v>
       </c>
       <c r="G5" t="n">
-        <v>10381.62</v>
+        <v>5784.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>53511</v>
+        <v>65871</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cauã da Cruz</t>
+          <t>Laís da Mota</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45099</v>
       </c>
       <c r="G6" t="n">
-        <v>9708.629999999999</v>
+        <v>3576.71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>44531</v>
+        <v>15915</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Francisco Lima</t>
+          <t>Pietro Viana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45100</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>11184.19</v>
+        <v>10279.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38180</v>
+        <v>16381</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nicole Carvalho</t>
+          <t>Otávio Fogaça</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>10717.61</v>
+        <v>3650.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99138</v>
+        <v>82303</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pietro da Mata</t>
+          <t>Maria Cecília Souza</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>4356.74</v>
+        <v>5112.69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>88994</v>
+        <v>13876</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nicolas Moura</t>
+          <t>Maria Sophia Nascimento</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>5397.26</v>
+        <v>2561.41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73040</v>
+        <v>88570</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cauã da Mata</t>
+          <t>João Vitor Rodrigues</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>6115.02</v>
+        <v>7667.46</v>
       </c>
     </row>
   </sheetData>
